--- a/lectures/cs532-s19/assignments/A3/wordcount.xlsx
+++ b/lectures/cs532-s19/assignments/A3/wordcount.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Brackets\anwala.github.io\lectures\cs532-s19\assignments\A3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5E216F-CB47-42D8-8780-54F3B8325CD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2290F9-A5EE-485F-8714-BCA117127B08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-2124" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wordcount" sheetId="1" r:id="rId1"/>
     <sheet name="wordcount (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>TF</t>
   </si>
@@ -83,13 +84,77 @@
   </si>
   <si>
     <t>https://www.theatlantic.com/health/archive/2016/07/trump-and-sociopathy/491966/</t>
+  </si>
+  <si>
+    <t>www.nytimes.com</t>
+  </si>
+  <si>
+    <t>www.ebay.com</t>
+  </si>
+  <si>
+    <t>www.hugedomains.com</t>
+  </si>
+  <si>
+    <t>www.foxnews.com</t>
+  </si>
+  <si>
+    <t>www.theatlantic.com</t>
+  </si>
+  <si>
+    <t>www.nbcbayarea.com</t>
+  </si>
+  <si>
+    <t>s2.washingtonpost.com</t>
+  </si>
+  <si>
+    <t>theheartysoul.com</t>
+  </si>
+  <si>
+    <t>te4.org</t>
+  </si>
+  <si>
+    <t>www.newsbreakapp.com</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>https://www.newsbreakapp.com/</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/</t>
+  </si>
+  <si>
+    <t>https://www.foxnews.com/</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/</t>
+  </si>
+  <si>
+    <t>https://theheartysoul.com/</t>
+  </si>
+  <si>
+    <t>https://www.hugedomains.com/</t>
+  </si>
+  <si>
+    <t>https://www.nbcbayarea.com/</t>
+  </si>
+  <si>
+    <t>https://www.theatlantic.com/</t>
+  </si>
+  <si>
+    <t>https://s2.washingtonpost.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +289,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -522,7 +595,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -565,11 +638,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -603,6 +681,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -613,7 +692,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -639,8 +727,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -658,11 +746,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0">
   <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TFIDF">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TFIDF" dataDxfId="0">
       <calculatedColumnFormula>C2*B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TF"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IDF">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TF" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IDF" dataDxfId="2">
       <calculatedColumnFormula>LOG((20000000000/39300000),2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="URI"/>
@@ -970,14 +1058,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="164.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,6 +1229,10 @@
       <c r="H6">
         <v>744</v>
       </c>
+      <c r="J6">
+        <f>1/33</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1165,6 +1258,10 @@
       </c>
       <c r="H7">
         <v>756</v>
+      </c>
+      <c r="J7">
+        <f>1/66</f>
+        <v>1.5151515151515152E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1281,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,14 +1413,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <f t="shared" ref="A2:A11" si="0">C2*B2</f>
         <v>0.27246227188418809</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f t="shared" ref="C2:C11" si="1">LOG((20000000000/39300000),2)</f>
         <v>8.991254972178206</v>
       </c>
@@ -1341,14 +1438,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>7.1246077434058683E-2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>7.9239302694136295E-3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" si="1"/>
         <v>8.991254972178206</v>
       </c>
@@ -1370,14 +1467,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>4.5182185789840235E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>5.0251256281407036E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f>LOG((20000000000/39300000),2)</f>
         <v>8.991254972178206</v>
       </c>
@@ -1398,14 +1495,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3.6291644690931206E-2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>4.0363269424823411E-3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" si="1"/>
         <v>8.991254972178206</v>
       </c>
@@ -1423,14 +1520,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>3.4094682993091791E-2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>3.791982665222102E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8.991254972178206</v>
       </c>
@@ -1448,14 +1545,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>3.154826306027441E-2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>3.5087719298245615E-3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>8.991254972178206</v>
       </c>
@@ -1473,14 +1570,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2.4769297444017097E-2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>2.7548209366391185E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>8.991254972178206</v>
       </c>
@@ -1498,14 +1595,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>1.263704142259762E-2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1.4054813773717498E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>8.991254972178206</v>
       </c>
@@ -1523,14 +1620,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>3.4462456773392898E-3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>3.8328861632809508E-4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>8.991254972178206</v>
       </c>
@@ -1548,14 +1645,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>3.0908404854514287E-3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>3.4376074252320387E-4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f t="shared" si="1"/>
         <v>8.991254972178206</v>
       </c>
@@ -1579,4 +1676,157 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DC42EA-5664-44A3-8003-9C416CA9BDD4}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
+    <sortCondition descending="1" ref="A2:A11"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{39B54405-6140-4843-B296-B7CACD3306E8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{75017283-1CC0-4B77-BF93-0449736BE606}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{7BAA87AB-B541-4036-BFF4-00A9466DD051}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{2C0BC6A1-C451-4799-8C4B-E00850465250}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{617477B1-15EE-4D7B-AE8D-997EEFF3208F}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{F114AC77-5635-42B3-996E-895D74EB86B6}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{2414E1D3-5ABC-4606-9586-444EDD9D8DD3}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{0288F769-31D5-417B-9AF3-A9F8A6DF6C22}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{CD305A49-9A14-4BC9-94ED-0029FF6BBCC3}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{1471FB0A-B583-4E62-9FDF-767BDA254FC8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+</worksheet>
 </file>